--- a/zipScores.xlsx
+++ b/zipScores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>BlendedScore_rebase</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>15020</t>
+  </si>
+  <si>
+    <t>150220</t>
   </si>
   <si>
     <t>15024</t>
@@ -734,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,25 +771,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C2">
         <v>10.8</v>
       </c>
       <c r="D2">
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F2">
-        <v>4.8</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>61.3</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -794,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.4</v>
+        <v>10.8</v>
       </c>
       <c r="C3">
         <v>9.199999999999999</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>9.199999999999999</v>
-      </c>
       <c r="G3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>57.8</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -820,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -832,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>23.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -846,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -858,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>23.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -872,25 +875,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>4.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C6">
         <v>9.199999999999999</v>
       </c>
       <c r="D6">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.6</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>42.9</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -898,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>7.2</v>
+        <v>14.4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -910,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>34.2</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -924,25 +927,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="C8">
         <v>10.4</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="F8">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>69.40000000000001</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -950,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -962,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>23.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -976,25 +979,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C10">
         <v>12.4</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1002,25 +1005,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1028,25 +1031,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>6.4</v>
+        <v>14.4</v>
       </c>
       <c r="C12">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>42.6</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1054,25 +1057,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>6.2</v>
+        <v>12.8</v>
       </c>
       <c r="C13">
         <v>8.800000000000001</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1080,25 +1083,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F14">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>23.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1106,10 +1109,10 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C15">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1118,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1132,25 +1135,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C16">
-        <v>8.4</v>
+        <v>10.4</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1158,25 +1161,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.4</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>32.6</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1184,25 +1187,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C18">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.6</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H18">
-        <v>36.40000000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1210,25 +1213,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>7.6</v>
+        <v>12.4</v>
       </c>
       <c r="C19">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>62.90000000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1236,25 +1239,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>15.2</v>
       </c>
       <c r="C20">
+        <v>9.6</v>
+      </c>
+      <c r="D20">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
       <c r="F20">
-        <v>11.2</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>76.2</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1262,25 +1265,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>6.2</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="F21">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>80.80000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1288,25 +1291,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C22">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>8.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>48.6</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1314,25 +1317,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>23.6</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1340,7 +1343,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1352,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>23.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1366,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1378,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>23.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1392,25 +1395,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>12.4</v>
       </c>
       <c r="C26">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="G26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>63.8</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1418,25 +1421,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>10.4</v>
+        <v>15.6</v>
       </c>
       <c r="D27">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="E27">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>65.8</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1444,25 +1447,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>16.4</v>
       </c>
       <c r="C28">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H28">
-        <v>61.6</v>
+        <v>75.19999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1470,25 +1473,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>6.2</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="F29">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>23.6</v>
+        <v>76.80000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1496,25 +1499,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>5.2</v>
+        <v>12.4</v>
       </c>
       <c r="C30">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="G30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H30">
-        <v>57.5</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1522,25 +1525,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>6.6</v>
+        <v>10.4</v>
       </c>
       <c r="C31">
-        <v>11.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="F31">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>69.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1548,25 +1551,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>6.4</v>
+        <v>13.2</v>
       </c>
       <c r="C32">
-        <v>10.4</v>
+        <v>11.2</v>
       </c>
       <c r="D32">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="E32">
+        <v>13.6</v>
+      </c>
+      <c r="F32">
         <v>12</v>
       </c>
-      <c r="F32">
-        <v>9.6</v>
-      </c>
       <c r="G32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32">
-        <v>62.9</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1574,25 +1577,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>6.2</v>
+        <v>12.8</v>
       </c>
       <c r="C33">
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="F33">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>47.2</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1600,25 +1603,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C34">
         <v>11.6</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="E34">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>46.7</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1626,25 +1629,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C35">
         <v>11.6</v>
       </c>
       <c r="D35">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F35">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35">
-        <v>45.7</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1652,25 +1655,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>12.4</v>
       </c>
       <c r="C36">
-        <v>9.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="D36">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5.2</v>
+        <v>18</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>58.90000000000001</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1678,25 +1681,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>11.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D37">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="F37">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>53.3</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1704,25 +1707,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H38">
-        <v>57.4</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1730,25 +1733,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C39">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="D39">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="F39">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H39">
-        <v>46.7</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1756,25 +1759,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>5.8</v>
+        <v>12.4</v>
       </c>
       <c r="C40">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="D40">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E40">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H40">
-        <v>57.4</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1782,25 +1785,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>7.8</v>
+        <v>11.6</v>
       </c>
       <c r="C41">
-        <v>11.6</v>
+        <v>9.6</v>
       </c>
       <c r="D41">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="E41">
-        <v>21.5</v>
+        <v>6.8</v>
       </c>
       <c r="F41">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H41">
-        <v>82</v>
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1808,25 +1811,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>8.800000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="C42">
-        <v>14.4</v>
+        <v>11.6</v>
       </c>
       <c r="D42">
-        <v>10.5</v>
+        <v>11.6</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>17.2</v>
       </c>
       <c r="F42">
-        <v>11.2</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42">
-        <v>70.90000000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1834,25 +1837,25 @@
         <v>48</v>
       </c>
       <c r="B43">
+        <v>17.6</v>
+      </c>
+      <c r="C43">
+        <v>14.4</v>
+      </c>
+      <c r="D43">
         <v>8.4</v>
       </c>
-      <c r="C43">
-        <v>11.2</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
       <c r="E43">
-        <v>17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H43">
-        <v>71.59999999999999</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1860,25 +1863,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>6.2</v>
+        <v>16.8</v>
       </c>
       <c r="C44">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="F44">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>47.4</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1886,25 +1889,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C45">
-        <v>12.8</v>
+        <v>10.8</v>
       </c>
       <c r="D45">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="E45">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H45">
-        <v>72</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1912,25 +1915,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>7.2</v>
+        <v>12.4</v>
       </c>
       <c r="C46">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>10.8</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>13.2</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H46">
-        <v>75.8</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1938,25 +1941,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>2.8</v>
+        <v>14.4</v>
       </c>
       <c r="C47">
-        <v>4.4</v>
+        <v>11.6</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>12.8</v>
       </c>
       <c r="E47">
-        <v>3.5</v>
+        <v>12.8</v>
       </c>
       <c r="F47">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="G47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H47">
-        <v>31.1</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1964,25 +1967,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="C48">
-        <v>10.4</v>
+        <v>4.4</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="F48">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H48">
-        <v>54</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1990,25 +1993,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>5.4</v>
+        <v>12.4</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="D49">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F49">
-        <v>10.4</v>
+        <v>18</v>
       </c>
       <c r="G49">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H49">
-        <v>63.3</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2016,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>5.6</v>
+        <v>10.8</v>
       </c>
       <c r="C50">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>19.5</v>
+        <v>8.4</v>
       </c>
       <c r="E50">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H50">
-        <v>67.8</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2042,25 +2045,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>6.8</v>
+        <v>11.2</v>
       </c>
       <c r="C51">
         <v>10.4</v>
       </c>
       <c r="D51">
-        <v>11.5</v>
+        <v>15.6</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="G51">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H51">
-        <v>63.1</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2068,25 +2071,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>8.199999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="C52">
         <v>10.4</v>
       </c>
       <c r="D52">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E52">
-        <v>3.5</v>
+        <v>10.4</v>
       </c>
       <c r="F52">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="G52">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H52">
-        <v>56.8</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2094,25 +2097,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>6.6</v>
+        <v>16.4</v>
       </c>
       <c r="C53">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="D53">
+        <v>8.4</v>
+      </c>
+      <c r="E53">
+        <v>2.8</v>
+      </c>
+      <c r="F53">
         <v>10</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>9.6</v>
-      </c>
       <c r="G53">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H53">
-        <v>50.8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2120,25 +2123,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>3.8</v>
+        <v>13.2</v>
       </c>
       <c r="C54">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H54">
-        <v>53</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2146,25 +2149,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="C55">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D55">
+        <v>6.4</v>
+      </c>
+      <c r="E55">
         <v>8.800000000000001</v>
       </c>
-      <c r="D55">
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <v>3.5</v>
-      </c>
       <c r="F55">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H55">
-        <v>45.9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2172,25 +2175,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>6.2</v>
+        <v>10.4</v>
       </c>
       <c r="C56">
-        <v>11.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F56">
-        <v>4.8</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H56">
-        <v>49.2</v>
+        <v>68.80000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2198,25 +2201,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>12.4</v>
       </c>
       <c r="C57">
-        <v>9.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H57">
-        <v>55</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2224,25 +2227,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D58">
+        <v>5.6</v>
+      </c>
+      <c r="E58">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F58">
         <v>14</v>
       </c>
-      <c r="E58">
-        <v>9.5</v>
-      </c>
-      <c r="F58">
-        <v>7.2</v>
-      </c>
       <c r="G58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H58">
-        <v>62.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2250,25 +2253,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>5.2</v>
+        <v>10.4</v>
       </c>
       <c r="C59">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="E59">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="F59">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="G59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H59">
-        <v>53.7</v>
+        <v>73.19999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2276,25 +2279,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>7.8</v>
+        <v>10.4</v>
       </c>
       <c r="C60">
-        <v>10.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D60">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <v>68.09999999999999</v>
+        <v>68.80000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2302,25 +2305,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>4.2</v>
+        <v>15.6</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="F61">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H61">
-        <v>45.59999999999999</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2328,25 +2331,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F62">
-        <v>13.2</v>
+        <v>18</v>
       </c>
       <c r="G62">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H62">
-        <v>47.4</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2354,25 +2357,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>6.4</v>
+        <v>12.4</v>
       </c>
       <c r="C63">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="E63">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>12.4</v>
+        <v>6</v>
       </c>
       <c r="G63">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H63">
-        <v>68.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2380,25 +2383,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>6.4</v>
+        <v>12.8</v>
       </c>
       <c r="C64">
-        <v>13.6</v>
+        <v>11.2</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H64">
-        <v>41</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2406,25 +2409,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>4.8</v>
+        <v>12.8</v>
       </c>
       <c r="C65">
-        <v>11.2</v>
+        <v>13.6</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H65">
-        <v>52.9</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2432,25 +2435,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="C66">
-        <v>13.2</v>
+        <v>11.2</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E66">
-        <v>21.5</v>
+        <v>6.8</v>
       </c>
       <c r="F66">
-        <v>7.6</v>
+        <v>18</v>
       </c>
       <c r="G66">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H66">
-        <v>80.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2458,25 +2461,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>5.6</v>
+        <v>15.6</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>13.2</v>
       </c>
       <c r="D67">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>14</v>
+        <v>17.2</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G67">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H67">
-        <v>65.09999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2484,25 +2487,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>6.2</v>
+        <v>11.2</v>
       </c>
       <c r="C68">
-        <v>10.8</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="F68">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="G68">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H68">
-        <v>41.4</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2510,25 +2513,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>3.8</v>
+        <v>12.4</v>
       </c>
       <c r="C69">
-        <v>12.8</v>
+        <v>10.8</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>5.6</v>
       </c>
       <c r="E69">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>11.6</v>
+        <v>18</v>
       </c>
       <c r="G69">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="H69">
-        <v>79.59999999999999</v>
+        <v>66.80000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2536,25 +2539,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="C70">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="F70">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G70">
-        <v>15</v>
+        <v>19.2</v>
       </c>
       <c r="H70">
-        <v>63.90000000000001</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2562,25 +2565,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>11.2</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>10.4</v>
       </c>
       <c r="E71">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F71">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="G71">
-        <v>12.6</v>
+        <v>20</v>
       </c>
       <c r="H71">
-        <v>78.09999999999999</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2588,25 +2591,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="F72">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="H72">
-        <v>20.3</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2614,25 +2617,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>16</v>
       </c>
-      <c r="F73">
-        <v>7.6</v>
-      </c>
       <c r="G73">
-        <v>14.7</v>
+        <v>18.8</v>
       </c>
       <c r="H73">
-        <v>70.7</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2640,25 +2643,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="D74">
-        <v>16.5</v>
+        <v>11.2</v>
       </c>
       <c r="E74">
-        <v>21.5</v>
+        <v>12.8</v>
       </c>
       <c r="F74">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="G74">
-        <v>12.9</v>
+        <v>19.6</v>
       </c>
       <c r="H74">
-        <v>81.09999999999999</v>
+        <v>78.80000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2666,25 +2669,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>4.8</v>
+        <v>10.8</v>
       </c>
       <c r="C75">
-        <v>10.4</v>
+        <v>14</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="E75">
-        <v>11.5</v>
+        <v>17.2</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>14.1</v>
+        <v>17.2</v>
       </c>
       <c r="H75">
-        <v>58.8</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2692,25 +2695,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="C76">
-        <v>14.8</v>
+        <v>10.4</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="E76">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F76">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="G76">
-        <v>13.8</v>
+        <v>18.8</v>
       </c>
       <c r="H76">
-        <v>60.2</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2718,25 +2721,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="C77">
+        <v>14.8</v>
+      </c>
+      <c r="D77">
+        <v>9.6</v>
+      </c>
+      <c r="E77">
         <v>10.4</v>
       </c>
-      <c r="D77">
-        <v>15</v>
-      </c>
-      <c r="E77">
-        <v>11.5</v>
-      </c>
       <c r="F77">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="G77">
-        <v>15</v>
+        <v>18.4</v>
       </c>
       <c r="H77">
-        <v>68.7</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2744,25 +2747,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>5.4</v>
+        <v>15.2</v>
       </c>
       <c r="C78">
-        <v>14.8</v>
+        <v>10.4</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F78">
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H78">
-        <v>54.5</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2770,25 +2773,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>4.8</v>
+        <v>10.8</v>
       </c>
       <c r="C79">
-        <v>10.8</v>
+        <v>14.8</v>
       </c>
       <c r="D79">
-        <v>14.5</v>
+        <v>5.6</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="G79">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="H79">
-        <v>57.40000000000001</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2796,25 +2799,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="C80">
+        <v>10.8</v>
+      </c>
+      <c r="D80">
         <v>11.6</v>
       </c>
-      <c r="D80">
-        <v>19.5</v>
-      </c>
       <c r="E80">
-        <v>14</v>
+        <v>4.8</v>
       </c>
       <c r="F80">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="G80">
-        <v>10.5</v>
+        <v>18.8</v>
       </c>
       <c r="H80">
-        <v>64.40000000000001</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2822,25 +2825,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="C81">
+        <v>11.6</v>
+      </c>
+      <c r="D81">
         <v>15.6</v>
       </c>
-      <c r="D81">
-        <v>15.5</v>
-      </c>
       <c r="E81">
-        <v>20</v>
+        <v>11.2</v>
       </c>
       <c r="F81">
-        <v>10.8</v>
+        <v>16</v>
       </c>
       <c r="G81">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="H81">
-        <v>81.90000000000001</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2848,25 +2851,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>4.4</v>
+        <v>11.2</v>
       </c>
       <c r="C82">
-        <v>12.4</v>
+        <v>15.6</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>13.5</v>
+        <v>19.2</v>
       </c>
       <c r="H82">
-        <v>36.3</v>
+        <v>84.39999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2874,25 +2877,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C83">
-        <v>10.8</v>
+        <v>12.4</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>14</v>
       </c>
-      <c r="F83">
-        <v>11.2</v>
-      </c>
       <c r="G83">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H83">
-        <v>68.59999999999999</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2900,25 +2903,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>6.8</v>
+        <v>13.2</v>
       </c>
       <c r="C84">
-        <v>14.4</v>
+        <v>10.8</v>
       </c>
       <c r="D84">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>11.2</v>
       </c>
       <c r="F84">
         <v>8</v>
       </c>
       <c r="G84">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="H84">
-        <v>77.09999999999999</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2926,25 +2929,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>7.2</v>
+        <v>13.6</v>
       </c>
       <c r="C85">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>12.4</v>
       </c>
       <c r="E85">
-        <v>19.5</v>
+        <v>14.4</v>
       </c>
       <c r="F85">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G85">
-        <v>14.7</v>
+        <v>19.2</v>
       </c>
       <c r="H85">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2952,25 +2955,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>4.6</v>
+        <v>14.4</v>
       </c>
       <c r="C86">
-        <v>12.4</v>
+        <v>13.6</v>
       </c>
       <c r="D86">
-        <v>14.5</v>
+        <v>12.8</v>
       </c>
       <c r="E86">
-        <v>8</v>
+        <v>15.6</v>
       </c>
       <c r="F86">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="G86">
-        <v>15</v>
+        <v>19.6</v>
       </c>
       <c r="H86">
-        <v>62.1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2978,25 +2981,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C87">
-        <v>14.4</v>
+        <v>12.4</v>
       </c>
       <c r="D87">
-        <v>15</v>
+        <v>11.6</v>
       </c>
       <c r="E87">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="F87">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H87">
-        <v>46.7</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3004,25 +3007,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="C88">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F88">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="G88">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>65.5</v>
+        <v>60.40000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3030,25 +3033,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>10.4</v>
       </c>
       <c r="C89">
         <v>13.2</v>
       </c>
       <c r="D89">
-        <v>11.5</v>
+        <v>10.4</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="F89">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="G89">
-        <v>13.5</v>
+        <v>19.2</v>
       </c>
       <c r="H89">
-        <v>63.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3056,25 +3059,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>16.8</v>
+        <v>13.2</v>
       </c>
       <c r="D90">
-        <v>22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E90">
-        <v>26.5</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G90">
-        <v>13.8</v>
+        <v>18</v>
       </c>
       <c r="H90">
-        <v>105.1</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3082,25 +3085,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>13.2</v>
+        <v>16.8</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>17.6</v>
       </c>
       <c r="E91">
-        <v>12.5</v>
+        <v>21.2</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>18.4</v>
       </c>
       <c r="H91">
-        <v>64.90000000000001</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3108,25 +3111,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>4.8</v>
+        <v>12.4</v>
       </c>
       <c r="C92">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="D92">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G92">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="H92">
-        <v>80</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3134,25 +3137,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="C93">
+        <v>14.8</v>
+      </c>
+      <c r="D93">
+        <v>15.2</v>
+      </c>
+      <c r="E93">
+        <v>13.6</v>
+      </c>
+      <c r="F93">
         <v>10</v>
       </c>
-      <c r="D93">
-        <v>9</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>2.4</v>
-      </c>
       <c r="G93">
-        <v>15</v>
+        <v>19.2</v>
       </c>
       <c r="H93">
-        <v>42.59999999999999</v>
+        <v>82.39999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3160,25 +3163,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>4.8</v>
+        <v>12.4</v>
       </c>
       <c r="C94">
-        <v>12.4</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>7.6</v>
+        <v>18</v>
       </c>
       <c r="G94">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="H94">
-        <v>60.2</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3186,25 +3189,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="C95">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G95">
-        <v>14.7</v>
+        <v>19.2</v>
       </c>
       <c r="H95">
-        <v>69.3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3212,25 +3215,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="C96">
-        <v>14.4</v>
+        <v>12.8</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="E96">
         <v>12</v>
       </c>
       <c r="F96">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="G96">
-        <v>15</v>
+        <v>19.6</v>
       </c>
       <c r="H96">
-        <v>76.19999999999999</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3238,25 +3241,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>8.4</v>
+        <v>18.8</v>
       </c>
       <c r="C97">
-        <v>16.4</v>
+        <v>14.4</v>
       </c>
       <c r="D97">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="F97">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G97">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H97">
-        <v>71</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3264,25 +3267,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>4.2</v>
+        <v>16.8</v>
       </c>
       <c r="C98">
-        <v>14</v>
+        <v>16.4</v>
       </c>
       <c r="D98">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="E98">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>16.8</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>14.7</v>
+        <v>20</v>
       </c>
       <c r="H98">
-        <v>78.2</v>
+        <v>80.80000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3290,25 +3293,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>3.8</v>
+        <v>8.4</v>
       </c>
       <c r="C99">
-        <v>12.8</v>
+        <v>14</v>
       </c>
       <c r="D99">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="E99">
-        <v>13.5</v>
+        <v>11.2</v>
       </c>
       <c r="F99">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>14.4</v>
+        <v>19.6</v>
       </c>
       <c r="H99">
-        <v>63.3</v>
+        <v>68.80000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3316,25 +3319,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C100">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="D100">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="F100">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="G100">
-        <v>15</v>
+        <v>19.2</v>
       </c>
       <c r="H100">
-        <v>66.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3342,25 +3345,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>5.6</v>
+        <v>13.2</v>
       </c>
       <c r="C101">
         <v>13.2</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F101">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="G101">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H101">
-        <v>69.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3368,25 +3371,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>7.8</v>
+        <v>11.2</v>
       </c>
       <c r="C102">
+        <v>13.2</v>
+      </c>
+      <c r="D102">
         <v>11.2</v>
       </c>
-      <c r="D102">
-        <v>15</v>
-      </c>
       <c r="E102">
-        <v>15.5</v>
+        <v>12.8</v>
       </c>
       <c r="F102">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="G102">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H102">
-        <v>74.09999999999999</v>
+        <v>82.39999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3394,25 +3397,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>8.199999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="C103">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="D103">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>23</v>
+        <v>12.4</v>
       </c>
       <c r="F103">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="G103">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H103">
-        <v>85.8</v>
+        <v>81.19999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3420,25 +3423,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>16.4</v>
       </c>
       <c r="C104">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="D104">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E104">
-        <v>13</v>
+        <v>18.4</v>
       </c>
       <c r="F104">
-        <v>12.4</v>
+        <v>8</v>
       </c>
       <c r="G104">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H104">
-        <v>76.09999999999999</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3446,25 +3449,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="C105">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="F105">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="G105">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H105">
-        <v>66.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3472,25 +3475,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>17.2</v>
       </c>
       <c r="C106">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E106">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F106">
-        <v>11.2</v>
+        <v>12</v>
       </c>
       <c r="G106">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H106">
-        <v>71.09999999999999</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3498,25 +3501,25 @@
         <v>112</v>
       </c>
       <c r="B107">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>10.4</v>
+      </c>
+      <c r="D107">
         <v>7.2</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
       <c r="E107">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="F107">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="G107">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H107">
-        <v>33.8</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3524,7 +3527,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>6.2</v>
+        <v>14.4</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3536,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H108">
-        <v>23.6</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3550,7 +3553,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3562,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="G109">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H109">
-        <v>23.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3576,25 +3579,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>4.8</v>
+        <v>12.4</v>
       </c>
       <c r="C110">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>8.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="G110">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H110">
-        <v>56.40000000000001</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3602,25 +3605,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C111">
-        <v>10.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D111">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>16.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G111">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H111">
-        <v>72.59999999999999</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3628,25 +3631,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>8.4</v>
+        <v>16.4</v>
       </c>
       <c r="C112">
-        <v>12.8</v>
+        <v>10.4</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E112">
+        <v>13.2</v>
+      </c>
+      <c r="F112">
         <v>10</v>
       </c>
-      <c r="F112">
-        <v>10.4</v>
-      </c>
       <c r="G112">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H112">
-        <v>68.59999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3654,25 +3657,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>16.8</v>
       </c>
       <c r="C113">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="E113">
         <v>8</v>
       </c>
       <c r="F113">
-        <v>12.4</v>
+        <v>10</v>
       </c>
       <c r="G113">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H113">
-        <v>66</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3680,25 +3683,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="C114">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="D114">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E114">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="F114">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H114">
-        <v>55.1</v>
+        <v>70.80000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3706,25 +3709,51 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>6.2</v>
+        <v>14.8</v>
       </c>
       <c r="C115">
+        <v>10.8</v>
+      </c>
+      <c r="D115">
+        <v>8.4</v>
+      </c>
+      <c r="E115">
+        <v>7.2</v>
+      </c>
+      <c r="F115">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>20</v>
+      </c>
+      <c r="H115">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>12.4</v>
+      </c>
+      <c r="C116">
         <v>7.6</v>
       </c>
-      <c r="D115">
-        <v>7</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="D116">
+        <v>5.6</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>10</v>
       </c>
-      <c r="G115">
-        <v>15</v>
-      </c>
-      <c r="H115">
-        <v>45.8</v>
+      <c r="G116">
+        <v>20</v>
+      </c>
+      <c r="H116">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/zipScores.xlsx
+++ b/zipScores.xlsx
@@ -771,25 +771,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C2">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D2">
         <v>10.8</v>
       </c>
       <c r="E2">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>78.8</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.8</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="C3">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D3">
         <v>7.2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>65.2</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -823,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -849,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -875,10 +875,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>9.199999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="C6">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D6">
         <v>8.4</v>
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>62.8</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>14.4</v>
+        <v>10.8</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>42.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -927,25 +927,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
       <c r="C8">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>10.4</v>
       </c>
       <c r="E8">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -953,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -979,10 +979,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C10">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="D10">
         <v>10.4</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>73.2</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1031,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>14.4</v>
+        <v>10.8</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>54.4</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1057,10 +1057,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>12.8</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="C13">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>67.59999999999999</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1083,25 +1083,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C14">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1109,7 +1109,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1135,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C16">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>60.8</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1161,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C17">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="D17">
         <v>5.6</v>
@@ -1173,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>64.40000000000001</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1213,10 +1213,10 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C19">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1239,25 +1239,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>15.2</v>
+        <v>11.4</v>
       </c>
       <c r="C20">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>8.800000000000001</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>75.59999999999999</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1265,25 +1265,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="D21">
         <v>11.2</v>
       </c>
       <c r="E21">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>80.80000000000001</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1291,10 +1291,10 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C22">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>60.8</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1317,10 +1317,10 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C23">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>7.2</v>
@@ -1329,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>61.2</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1343,7 +1343,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1369,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1395,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1421,25 +1421,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="C27">
-        <v>15.6</v>
+        <v>19.5</v>
       </c>
       <c r="D27">
         <v>9.6</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>79.2</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1447,25 +1447,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>16.4</v>
+        <v>12.3</v>
       </c>
       <c r="C28">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>8.4</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>75.19999999999999</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1473,25 +1473,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="C29">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>76.80000000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1499,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1525,25 +1525,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>10.4</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="C31">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D31">
         <v>8.4</v>
       </c>
       <c r="E31">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>71.59999999999999</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1551,25 +1551,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>13.2</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="C32">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>9.6</v>
       </c>
       <c r="E32">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>79.59999999999999</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1577,25 +1577,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>12.8</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="C33">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>7.6</v>
       </c>
       <c r="E33">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>70.40000000000001</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1603,10 +1603,10 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C34">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D34">
         <v>9.6</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>71.59999999999999</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1629,25 +1629,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C35">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>71.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1655,10 +1655,10 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C36">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D36">
         <v>8.4</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>70.40000000000001</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1681,25 +1681,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="C37">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>72.8</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1707,10 +1707,10 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D38">
         <v>9.199999999999999</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>62.8</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1733,25 +1733,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C39">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D39">
         <v>8.800000000000001</v>
       </c>
       <c r="E39">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G39">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>79.59999999999999</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1759,10 +1759,10 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C40">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D40">
         <v>9.199999999999999</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>71.2</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1785,25 +1785,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>11.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C41">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>8.4</v>
       </c>
       <c r="E41">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>68.40000000000001</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1811,25 +1811,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>15.6</v>
+        <v>11.7</v>
       </c>
       <c r="C42">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D42">
         <v>11.6</v>
       </c>
       <c r="E42">
-        <v>17.2</v>
+        <v>21.5</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>84</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1837,25 +1837,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>17.6</v>
+        <v>13.2</v>
       </c>
       <c r="C43">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>8.4</v>
       </c>
       <c r="E43">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>77.2</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1863,25 +1863,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
       <c r="C44">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>8</v>
       </c>
       <c r="E44">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>79.59999999999999</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1889,10 +1889,10 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C45">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D45">
         <v>10.4</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>71.59999999999999</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1915,25 +1915,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C46">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>10.8</v>
       </c>
       <c r="E46">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>81.2</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1941,25 +1941,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>14.4</v>
+        <v>10.8</v>
       </c>
       <c r="C47">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D47">
         <v>12.8</v>
       </c>
       <c r="E47">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>81.59999999999999</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1967,25 +1967,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>5.6</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="C48">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="D48">
         <v>2.4</v>
       </c>
       <c r="E48">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>53.2</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1993,25 +1993,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C49">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>7.2</v>
       </c>
       <c r="E49">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>76.8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>10.8</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>8.4</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>69.2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2045,25 +2045,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>11.2</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="C51">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>15.6</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>83.2</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2071,25 +2071,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>13.6</v>
+        <v>10.2</v>
       </c>
       <c r="C52">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>9.199999999999999</v>
       </c>
       <c r="E52">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="F52">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>77.59999999999999</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2097,25 +2097,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>16.4</v>
+        <v>12.3</v>
       </c>
       <c r="C53">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>8.4</v>
       </c>
       <c r="E53">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>68</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2123,10 +2123,10 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>13.2</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="C54">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>8</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G54">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>60.8</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2149,25 +2149,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>7.6</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="C55">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D55">
         <v>6.4</v>
       </c>
       <c r="E55">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G55">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>66</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2175,25 +2175,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>10.4</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="C56">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>8.800000000000001</v>
       </c>
       <c r="E56">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="F56">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>68.80000000000001</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2201,10 +2201,10 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C57">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>9.6</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>69.2</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2227,25 +2227,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D58">
         <v>5.6</v>
       </c>
       <c r="E58">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>69.59999999999999</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2253,25 +2253,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>10.4</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>11.2</v>
       </c>
       <c r="E59">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>73.19999999999999</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2279,25 +2279,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>10.4</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="C60">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>8</v>
       </c>
       <c r="E60">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>68.80000000000001</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2305,25 +2305,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>15.6</v>
+        <v>11.7</v>
       </c>
       <c r="C61">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D61">
         <v>9.199999999999999</v>
       </c>
       <c r="E61">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G61">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>76</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2331,7 +2331,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>8.4</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2340,16 +2340,16 @@
         <v>10.4</v>
       </c>
       <c r="E62">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F62">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>65.59999999999999</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2357,7 +2357,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>48.8</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2383,25 +2383,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>12.8</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="C64">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>8</v>
       </c>
       <c r="E64">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>70.8</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2409,10 +2409,10 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>12.8</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="C65">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>60.4</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2435,25 +2435,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C66">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>8.800000000000001</v>
       </c>
       <c r="E66">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="F66">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G66">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>74.40000000000001</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2461,25 +2461,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>15.6</v>
+        <v>11.7</v>
       </c>
       <c r="C67">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="D67">
         <v>12</v>
       </c>
       <c r="E67">
-        <v>17.2</v>
+        <v>21.5</v>
       </c>
       <c r="F67">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G67">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>90</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2487,25 +2487,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>11.2</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="D68">
         <v>8.4</v>
       </c>
       <c r="E68">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>78.8</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2513,10 +2513,10 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C69">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D69">
         <v>5.6</v>
@@ -2525,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>66.80000000000001</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2539,25 +2539,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>7.6</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="C70">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="D70">
         <v>16</v>
       </c>
       <c r="E70">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>19.2</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H70">
-        <v>77.2</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2565,25 +2565,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>10.4</v>
       </c>
       <c r="E71">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>74.8</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2591,25 +2591,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>8.800000000000001</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="D72">
         <v>19.2</v>
       </c>
       <c r="E72">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G72">
-        <v>16.8</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="H72">
-        <v>79.59999999999999</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2617,7 +2617,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2629,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>18.8</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H73">
-        <v>40.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2643,25 +2643,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C74">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>11.2</v>
       </c>
       <c r="E74">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G74">
-        <v>19.6</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="H74">
-        <v>78.80000000000001</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2669,25 +2669,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>10.8</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="D75">
         <v>13.2</v>
       </c>
       <c r="E75">
-        <v>17.2</v>
+        <v>21.5</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G75">
-        <v>17.2</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="H75">
-        <v>82.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2695,25 +2695,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C76">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>9.6</v>
       </c>
       <c r="E76">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F76">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G76">
-        <v>18.8</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H76">
-        <v>71.59999999999999</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2721,25 +2721,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>8.4</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="C77">
-        <v>14.8</v>
+        <v>18.5</v>
       </c>
       <c r="D77">
         <v>9.6</v>
       </c>
       <c r="E77">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="F77">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G77">
-        <v>18.4</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="H77">
-        <v>79.59999999999999</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2747,25 +2747,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>15.2</v>
+        <v>11.4</v>
       </c>
       <c r="C78">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>12</v>
       </c>
       <c r="E78">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G78">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>76.8</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2773,25 +2773,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>10.8</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="C79">
-        <v>14.8</v>
+        <v>18.5</v>
       </c>
       <c r="D79">
         <v>5.6</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F79">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G79">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>75.2</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2799,25 +2799,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C80">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D80">
         <v>11.6</v>
       </c>
       <c r="E80">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="F80">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G80">
-        <v>18.8</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H80">
-        <v>67.59999999999999</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2825,25 +2825,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D81">
         <v>15.6</v>
       </c>
       <c r="E81">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="F81">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H81">
-        <v>76.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2851,25 +2851,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>11.2</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="C82">
-        <v>15.6</v>
+        <v>19.5</v>
       </c>
       <c r="D82">
         <v>12.4</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G82">
-        <v>19.2</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H82">
-        <v>84.39999999999999</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2877,10 +2877,10 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>8.800000000000001</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="C83">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2889,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G83">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>53.2</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2903,25 +2903,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>13.2</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="C84">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D84">
         <v>8.800000000000001</v>
       </c>
       <c r="E84">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G84">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>72</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2929,25 +2929,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>13.6</v>
+        <v>10.2</v>
       </c>
       <c r="C85">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="D85">
         <v>12.4</v>
       </c>
       <c r="E85">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G85">
-        <v>19.2</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H85">
-        <v>86</v>
+        <v>68.39999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2955,25 +2955,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>14.4</v>
+        <v>10.8</v>
       </c>
       <c r="C86">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="D86">
         <v>12.8</v>
       </c>
       <c r="E86">
-        <v>15.6</v>
+        <v>19.5</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G86">
-        <v>19.6</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="H86">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2981,25 +2981,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>9.199999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="C87">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="D87">
         <v>11.6</v>
       </c>
       <c r="E87">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>71.59999999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3007,25 +3007,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="C88">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>12</v>
       </c>
       <c r="E88">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F88">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H88">
-        <v>60.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3033,25 +3033,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>10.4</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="C89">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="D89">
         <v>10.4</v>
       </c>
       <c r="E89">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G89">
-        <v>19.2</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H89">
-        <v>71.59999999999999</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3059,25 +3059,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="C90">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="D90">
         <v>9.199999999999999</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F90">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G90">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>76.40000000000001</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3085,25 +3085,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>16.8</v>
+        <v>21</v>
       </c>
       <c r="D91">
         <v>17.6</v>
       </c>
       <c r="E91">
-        <v>21.2</v>
+        <v>26.5</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>18.4</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="H91">
-        <v>86</v>
+        <v>75.69999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3111,25 +3111,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C92">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="D92">
         <v>8</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>75.59999999999999</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3137,25 +3137,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C93">
-        <v>14.8</v>
+        <v>18.5</v>
       </c>
       <c r="D93">
         <v>15.2</v>
       </c>
       <c r="E93">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G93">
-        <v>19.2</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H93">
-        <v>82.39999999999999</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3163,10 +3163,10 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="D94">
         <v>7.2</v>
@@ -3175,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G94">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>67.59999999999999</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3189,25 +3189,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C95">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="D95">
         <v>8.800000000000001</v>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F95">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G95">
-        <v>19.2</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H95">
-        <v>70</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3215,25 +3215,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>11.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C96">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="D96">
         <v>10.4</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F96">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G96">
-        <v>19.6</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="H96">
-        <v>78.40000000000001</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3241,25 +3241,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>18.8</v>
+        <v>14.1</v>
       </c>
       <c r="C97">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>10.4</v>
       </c>
       <c r="E97">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>81.2</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3267,25 +3267,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
       <c r="C98">
-        <v>16.4</v>
+        <v>20.5</v>
       </c>
       <c r="D98">
         <v>9.6</v>
       </c>
       <c r="E98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G98">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>80.80000000000001</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3293,25 +3293,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>8.4</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="D99">
         <v>11.6</v>
       </c>
       <c r="E99">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>19.6</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="H99">
-        <v>68.80000000000001</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3319,25 +3319,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>7.6</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="C100">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="D100">
         <v>9.6</v>
       </c>
       <c r="E100">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="F100">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G100">
-        <v>19.2</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H100">
-        <v>74</v>
+        <v>56.09999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3345,25 +3345,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>13.2</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="C101">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="D101">
         <v>10</v>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>74.40000000000001</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3371,25 +3371,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>11.2</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="C102">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="D102">
         <v>11.2</v>
       </c>
       <c r="E102">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="F102">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="G102">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>82.39999999999999</v>
+        <v>62.59999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3397,25 +3397,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>15.6</v>
+        <v>11.7</v>
       </c>
       <c r="C103">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="D103">
         <v>12</v>
       </c>
       <c r="E103">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G103">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>81.19999999999999</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3423,25 +3423,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>16.4</v>
+        <v>12.3</v>
       </c>
       <c r="C104">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="D104">
         <v>12.8</v>
       </c>
       <c r="E104">
-        <v>18.4</v>
+        <v>23</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G104">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>88</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3449,25 +3449,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="D105">
         <v>10</v>
       </c>
       <c r="E105">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G105">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>81.59999999999999</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3475,25 +3475,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>17.2</v>
+        <v>12.9</v>
       </c>
       <c r="C106">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="D106">
         <v>8.800000000000001</v>
       </c>
       <c r="E106">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G106">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>79.2</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3501,25 +3501,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="C107">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>7.2</v>
       </c>
       <c r="E107">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="F107">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G107">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>76.8</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3527,7 +3527,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>14.4</v>
+        <v>10.8</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3539,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G108">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>42.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3553,7 +3553,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G109">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3579,7 +3579,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G110">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>50.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3605,25 +3605,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>9.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C111">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>6</v>
       </c>
       <c r="E111">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F111">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G111">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>65.59999999999999</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3631,25 +3631,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>16.4</v>
+        <v>12.3</v>
       </c>
       <c r="C112">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="D112">
         <v>10</v>
       </c>
       <c r="E112">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G112">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>80</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3657,25 +3657,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
       <c r="C113">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="D113">
         <v>9.6</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G113">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>77.2</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3683,25 +3683,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C114">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="D114">
         <v>8.800000000000001</v>
       </c>
       <c r="E114">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G114">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>70.80000000000001</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3709,25 +3709,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>14.8</v>
+        <v>11.1</v>
       </c>
       <c r="C115">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="D115">
         <v>8.4</v>
       </c>
       <c r="E115">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="F115">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G115">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>79.2</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3735,10 +3735,10 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>12.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C116">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="D116">
         <v>5.6</v>
@@ -3747,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G116">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>55.6</v>
+        <v>31.9</v>
       </c>
     </row>
   </sheetData>

--- a/zipScores.xlsx
+++ b/zipScores.xlsx
@@ -774,7 +774,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C2">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D2">
         <v>10.8</v>
@@ -783,13 +783,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -800,7 +800,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C3">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="D3">
         <v>7.2</v>
@@ -809,13 +809,13 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>44.3</v>
+        <v>42.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -878,7 +878,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="C6">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="D6">
         <v>8.4</v>
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16.8</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -930,7 +930,7 @@
         <v>12.6</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D8">
         <v>10.4</v>
@@ -939,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56.5</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -982,7 +982,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C10">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="D10">
         <v>10.4</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1043,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27.8</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1060,7 +1060,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42.1</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1086,7 +1086,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>38.8</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1138,7 +1138,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1164,7 +1164,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C17">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="D17">
         <v>5.6</v>
@@ -1173,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>38.9</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26.9</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1216,7 +1216,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C19">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1242,7 +1242,7 @@
         <v>11.4</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="D20">
         <v>8.800000000000001</v>
@@ -1251,13 +1251,13 @@
         <v>12.5</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53.7</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1268,7 +1268,7 @@
         <v>13.5</v>
       </c>
       <c r="C21">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>11.2</v>
@@ -1277,13 +1277,13 @@
         <v>17</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>60.2</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1294,7 +1294,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1320,7 +1320,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="D23">
         <v>7.2</v>
@@ -1329,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37.5</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1424,7 +1424,7 @@
         <v>13.5</v>
       </c>
       <c r="C27">
-        <v>19.5</v>
+        <v>7.8</v>
       </c>
       <c r="D27">
         <v>9.6</v>
@@ -1433,13 +1433,13 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>56.6</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1450,7 +1450,7 @@
         <v>12.3</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D28">
         <v>8.4</v>
@@ -1459,13 +1459,13 @@
         <v>12.5</v>
       </c>
       <c r="F28">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>53.7</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1476,7 +1476,7 @@
         <v>10.5</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1485,13 +1485,13 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>54</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1528,7 +1528,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C31">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="D31">
         <v>8.4</v>
@@ -1537,13 +1537,13 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1554,7 +1554,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="D32">
         <v>9.6</v>
@@ -1563,13 +1563,13 @@
         <v>17</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>59.5</v>
+        <v>57.09999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1580,7 +1580,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D33">
         <v>7.6</v>
@@ -1589,13 +1589,13 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>49.7</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1606,7 +1606,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C34">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D34">
         <v>9.6</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>46.9</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1632,7 +1632,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C35">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1641,13 +1641,13 @@
         <v>11.5</v>
       </c>
       <c r="F35">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>48.8</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1658,7 +1658,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C36">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D36">
         <v>8.4</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>45.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1684,7 +1684,7 @@
         <v>7.5</v>
       </c>
       <c r="C37">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -1693,13 +1693,13 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1710,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D38">
         <v>9.199999999999999</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>40.2</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1736,7 +1736,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C39">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D39">
         <v>8.800000000000001</v>
@@ -1745,13 +1745,13 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>57.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1762,7 +1762,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C40">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D40">
         <v>9.199999999999999</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1788,7 +1788,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="D41">
         <v>8.4</v>
@@ -1797,13 +1797,13 @@
         <v>8.5</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>46.6</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1814,7 +1814,7 @@
         <v>11.7</v>
       </c>
       <c r="C42">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D42">
         <v>11.6</v>
@@ -1823,13 +1823,13 @@
         <v>21.5</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>65.3</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1840,7 +1840,7 @@
         <v>13.2</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="D43">
         <v>8.4</v>
@@ -1849,13 +1849,13 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>56.6</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1866,7 +1866,7 @@
         <v>12.6</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -1875,13 +1875,13 @@
         <v>17</v>
       </c>
       <c r="F44">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>59.1</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1892,7 +1892,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C45">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D45">
         <v>10.4</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>46.7</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1918,7 +1918,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="D46">
         <v>10.8</v>
@@ -1927,13 +1927,13 @@
         <v>16.5</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>61.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1944,7 +1944,7 @@
         <v>10.8</v>
       </c>
       <c r="C47">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D47">
         <v>12.8</v>
@@ -1953,13 +1953,13 @@
         <v>16</v>
       </c>
       <c r="F47">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>61.6</v>
+        <v>57.90000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1970,7 +1970,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="C48">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="D48">
         <v>2.4</v>
@@ -1979,13 +1979,13 @@
         <v>3.5</v>
       </c>
       <c r="F48">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>29.1</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1996,7 +1996,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D49">
         <v>7.2</v>
@@ -2005,13 +2005,13 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>54</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2022,7 +2022,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>8.4</v>
@@ -2031,13 +2031,13 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2048,7 +2048,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D51">
         <v>15.6</v>
@@ -2057,13 +2057,13 @@
         <v>12.5</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>61.5</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2074,7 +2074,7 @@
         <v>10.2</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D52">
         <v>9.199999999999999</v>
@@ -2083,13 +2083,13 @@
         <v>13</v>
       </c>
       <c r="F52">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>55.9</v>
+        <v>55.09999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2100,7 +2100,7 @@
         <v>12.3</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D53">
         <v>8.4</v>
@@ -2109,13 +2109,13 @@
         <v>3.5</v>
       </c>
       <c r="F53">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>44.7</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2126,7 +2126,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="D54">
         <v>8</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>37.4</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2152,7 +2152,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="C55">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="D55">
         <v>6.4</v>
@@ -2161,13 +2161,13 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2178,7 +2178,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="D56">
         <v>8.800000000000001</v>
@@ -2187,13 +2187,13 @@
         <v>3.5</v>
       </c>
       <c r="F56">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>44.6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2204,7 +2204,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="D57">
         <v>9.6</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2230,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="D58">
         <v>5.6</v>
@@ -2239,13 +2239,13 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2256,7 +2256,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>11.2</v>
@@ -2265,13 +2265,13 @@
         <v>9.5</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>52.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2282,7 +2282,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -2291,13 +2291,13 @@
         <v>9.5</v>
       </c>
       <c r="F60">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2308,7 +2308,7 @@
         <v>11.7</v>
       </c>
       <c r="C61">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D61">
         <v>9.199999999999999</v>
@@ -2317,13 +2317,13 @@
         <v>13</v>
       </c>
       <c r="F61">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>54.9</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2343,13 +2343,13 @@
         <v>11</v>
       </c>
       <c r="F62">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>41.2</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2386,7 +2386,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -2395,13 +2395,13 @@
         <v>13.5</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>51.1</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2412,7 +2412,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>37.1</v>
+        <v>33.90000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2438,7 +2438,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="D66">
         <v>8.800000000000001</v>
@@ -2447,13 +2447,13 @@
         <v>8.5</v>
       </c>
       <c r="F66">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>52</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2464,7 +2464,7 @@
         <v>11.7</v>
       </c>
       <c r="C67">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="D67">
         <v>12</v>
@@ -2473,13 +2473,13 @@
         <v>21.5</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>70.7</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2490,7 +2490,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C68">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="D68">
         <v>8.4</v>
@@ -2499,13 +2499,13 @@
         <v>14</v>
       </c>
       <c r="F68">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>58.8</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2516,7 +2516,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C69">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D69">
         <v>5.6</v>
@@ -2525,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>41.9</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2542,7 +2542,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="D70">
         <v>16</v>
@@ -2551,13 +2551,13 @@
         <v>17</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="H70">
-        <v>61.5</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2568,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="D71">
         <v>10.4</v>
@@ -2577,13 +2577,13 @@
         <v>11.5</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>53.9</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2594,7 +2594,7 @@
         <v>6.600000000000001</v>
       </c>
       <c r="C72">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="D72">
         <v>19.2</v>
@@ -2603,13 +2603,13 @@
         <v>13.5</v>
       </c>
       <c r="F72">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G72">
-        <v>3.199999999999999</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="H72">
-        <v>67.5</v>
+        <v>59.59999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2629,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G73">
-        <v>1.199999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="H73">
-        <v>17.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2646,7 +2646,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="D74">
         <v>11.2</v>
@@ -2655,13 +2655,13 @@
         <v>16</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G74">
-        <v>0.3999999999999986</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="H74">
-        <v>60.8</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2672,7 +2672,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C75">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="D75">
         <v>13.2</v>
@@ -2681,13 +2681,13 @@
         <v>21.5</v>
       </c>
       <c r="F75">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G75">
-        <v>2.800000000000001</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="H75">
-        <v>70.59999999999999</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2698,7 +2698,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C76">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D76">
         <v>9.6</v>
@@ -2707,13 +2707,13 @@
         <v>11.5</v>
       </c>
       <c r="F76">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G76">
-        <v>1.199999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="H76">
-        <v>53</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2724,7 +2724,7 @@
         <v>6.300000000000001</v>
       </c>
       <c r="C77">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="D77">
         <v>9.6</v>
@@ -2733,13 +2733,13 @@
         <v>13</v>
       </c>
       <c r="F77">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G77">
-        <v>1.600000000000001</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H77">
-        <v>62.5</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2750,7 +2750,7 @@
         <v>11.4</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D78">
         <v>12</v>
@@ -2759,13 +2759,13 @@
         <v>11.5</v>
       </c>
       <c r="F78">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>55.4</v>
+        <v>52.59999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2776,7 +2776,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C79">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="D79">
         <v>5.6</v>
@@ -2785,13 +2785,13 @@
         <v>12.5</v>
       </c>
       <c r="F79">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>62.2</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2802,7 +2802,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C80">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D80">
         <v>11.6</v>
@@ -2811,13 +2811,13 @@
         <v>6</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>1.199999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="H80">
-        <v>48.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2828,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D81">
         <v>15.6</v>
@@ -2837,13 +2837,13 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H81">
-        <v>68.09999999999999</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2854,7 +2854,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C82">
-        <v>19.5</v>
+        <v>7.8</v>
       </c>
       <c r="D82">
         <v>12.4</v>
@@ -2863,13 +2863,13 @@
         <v>20</v>
       </c>
       <c r="F82">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G82">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="H82">
-        <v>68.59999999999999</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2880,7 +2880,7 @@
         <v>6.600000000000001</v>
       </c>
       <c r="C83">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2889,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H83">
-        <v>34.6</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2906,7 +2906,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C84">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D84">
         <v>8.800000000000001</v>
@@ -2915,13 +2915,13 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>52.2</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2932,7 +2932,7 @@
         <v>10.2</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="D85">
         <v>12.4</v>
@@ -2941,13 +2941,13 @@
         <v>18</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G85">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="H85">
-        <v>68.39999999999999</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2958,7 +2958,7 @@
         <v>10.8</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="D86">
         <v>12.8</v>
@@ -2967,13 +2967,13 @@
         <v>19.5</v>
       </c>
       <c r="F86">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="G86">
-        <v>0.3999999999999986</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="H86">
-        <v>65</v>
+        <v>57.50000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2984,7 +2984,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="C87">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="D87">
         <v>11.6</v>
@@ -2993,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>51</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3010,7 +3010,7 @@
         <v>5.1</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="D88">
         <v>12</v>
@@ -3019,13 +3019,13 @@
         <v>11.5</v>
       </c>
       <c r="F88">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G88">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>80.09999999999999</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3036,7 +3036,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C89">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="D89">
         <v>10.4</v>
@@ -3045,13 +3045,13 @@
         <v>10.5</v>
       </c>
       <c r="F89">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G89">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="H89">
-        <v>53.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3062,7 +3062,7 @@
         <v>7.5</v>
       </c>
       <c r="C90">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="D90">
         <v>9.199999999999999</v>
@@ -3071,13 +3071,13 @@
         <v>15</v>
       </c>
       <c r="F90">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H90">
-        <v>60.7</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3088,7 +3088,7 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="D91">
         <v>17.6</v>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1.600000000000001</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H91">
-        <v>75.69999999999999</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3114,7 +3114,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C92">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -3123,13 +3123,13 @@
         <v>12.5</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>55.3</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3140,7 +3140,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C93">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="D93">
         <v>15.2</v>
@@ -3149,13 +3149,13 @@
         <v>17</v>
       </c>
       <c r="F93">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G93">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="H93">
-        <v>66.2</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3166,7 +3166,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C94">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>7.2</v>
@@ -3175,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>42.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3192,7 +3192,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C95">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="D95">
         <v>8.800000000000001</v>
@@ -3201,13 +3201,13 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G95">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="H95">
-        <v>51.3</v>
+        <v>47.40000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3218,7 +3218,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="D96">
         <v>10.4</v>
@@ -3227,13 +3227,13 @@
         <v>15</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G96">
-        <v>0.3999999999999986</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="H96">
-        <v>59.5</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3244,7 +3244,7 @@
         <v>14.1</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="D97">
         <v>10.4</v>
@@ -3253,13 +3253,13 @@
         <v>12</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>60.5</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3270,7 +3270,7 @@
         <v>12.6</v>
       </c>
       <c r="C98">
-        <v>20.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D98">
         <v>9.6</v>
@@ -3279,13 +3279,13 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>60.2</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3296,7 +3296,7 @@
         <v>6.300000000000001</v>
       </c>
       <c r="C99">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="D99">
         <v>11.6</v>
@@ -3305,13 +3305,13 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G99">
-        <v>0.3999999999999986</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="H99">
-        <v>52.8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3322,7 +3322,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="D100">
         <v>9.6</v>
@@ -3331,13 +3331,13 @@
         <v>13.5</v>
       </c>
       <c r="F100">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G100">
-        <v>0.8000000000000007</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="H100">
-        <v>56.09999999999999</v>
+        <v>52.90000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3348,7 +3348,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C101">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="D101">
         <v>10</v>
@@ -3357,13 +3357,13 @@
         <v>10</v>
       </c>
       <c r="F101">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>53.9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3374,7 +3374,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C102">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="D102">
         <v>11.2</v>
@@ -3383,13 +3383,13 @@
         <v>16</v>
       </c>
       <c r="F102">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>62.59999999999999</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3400,7 +3400,7 @@
         <v>11.7</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="D103">
         <v>12</v>
@@ -3409,13 +3409,13 @@
         <v>15.5</v>
       </c>
       <c r="F103">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>60.7</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3426,7 +3426,7 @@
         <v>12.3</v>
       </c>
       <c r="C104">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="D104">
         <v>12.8</v>
@@ -3435,13 +3435,13 @@
         <v>23</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>69.59999999999999</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3452,7 +3452,7 @@
         <v>15</v>
       </c>
       <c r="C105">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="D105">
         <v>10</v>
@@ -3461,13 +3461,13 @@
         <v>13</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>60.5</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3478,7 +3478,7 @@
         <v>12.9</v>
       </c>
       <c r="C106">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="D106">
         <v>8.800000000000001</v>
@@ -3487,13 +3487,13 @@
         <v>11</v>
       </c>
       <c r="F106">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>57.2</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3504,7 +3504,7 @@
         <v>13.5</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D107">
         <v>7.2</v>
@@ -3513,13 +3513,13 @@
         <v>16.5</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>56.2</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3539,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>16.8</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>22.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3608,7 +3608,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -3617,13 +3617,13 @@
         <v>11.5</v>
       </c>
       <c r="F111">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>44.7</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3634,7 +3634,7 @@
         <v>12.3</v>
       </c>
       <c r="C112">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="D112">
         <v>10</v>
@@ -3643,13 +3643,13 @@
         <v>16.5</v>
       </c>
       <c r="F112">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>59.3</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3660,7 +3660,7 @@
         <v>12.6</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="D113">
         <v>9.6</v>
@@ -3669,13 +3669,13 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>55.7</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3686,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="D114">
         <v>8.800000000000001</v>
@@ -3695,13 +3695,13 @@
         <v>8</v>
       </c>
       <c r="F114">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>49.3</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3712,7 +3712,7 @@
         <v>11.1</v>
       </c>
       <c r="C115">
-        <v>13.5</v>
+        <v>5.4</v>
       </c>
       <c r="D115">
         <v>8.4</v>
@@ -3721,13 +3721,13 @@
         <v>9</v>
       </c>
       <c r="F115">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>55.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3738,7 +3738,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C116">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="D116">
         <v>5.6</v>
@@ -3747,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>31.9</v>
+        <v>31.2</v>
       </c>
     </row>
   </sheetData>

--- a/zipScores.xlsx
+++ b/zipScores.xlsx
@@ -774,22 +774,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C2">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="D2">
         <v>5.4</v>
       </c>
-      <c r="D2">
-        <v>10.8</v>
-      </c>
       <c r="E2">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>56.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -800,22 +800,22 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="D3">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>42.40000000000001</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -878,22 +878,22 @@
         <v>6.899999999999999</v>
       </c>
       <c r="C6">
-        <v>4.6</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="D6">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20.8</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -930,22 +930,22 @@
         <v>12.6</v>
       </c>
       <c r="C8">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="D8">
         <v>5.2</v>
       </c>
-      <c r="D8">
-        <v>10.4</v>
-      </c>
       <c r="E8">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="F8">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53.7</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -982,22 +982,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C10">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D10">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48.4</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>33.8</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1060,22 +1060,22 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C13">
-        <v>4.4</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44.5</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1086,22 +1086,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C14">
-        <v>4.4</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F14">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>37.2</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1138,7 +1138,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C16">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1164,22 +1164,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="D17">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.6</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1193,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34.9</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1216,7 +1216,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C19">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1242,22 +1242,22 @@
         <v>11.4</v>
       </c>
       <c r="C20">
-        <v>4.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D20">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="E20">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1268,22 +1268,22 @@
         <v>13.5</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D21">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56.7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1294,7 +1294,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C22">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1320,22 +1320,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C23">
-        <v>4.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D23">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>36.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1424,22 +1424,22 @@
         <v>13.5</v>
       </c>
       <c r="C27">
-        <v>7.8</v>
+        <v>11.7</v>
       </c>
       <c r="D27">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>50.9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1450,22 +1450,22 @@
         <v>12.3</v>
       </c>
       <c r="C28">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D28">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E28">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="F28">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>50.9</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1476,22 +1476,22 @@
         <v>10.5</v>
       </c>
       <c r="C29">
-        <v>4.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="F29">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>53.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1528,22 +1528,22 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C31">
-        <v>4.6</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="D31">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="F31">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>50.3</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1554,22 +1554,22 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C32">
-        <v>5.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D32">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E32">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>57.09999999999999</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1580,22 +1580,22 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C33">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D33">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="F33">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>46.9</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1606,22 +1606,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C34">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D34">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>47.2</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1632,22 +1632,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C35">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="F35">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>49.1</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1658,22 +1658,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C36">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D36">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>46</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1684,22 +1684,22 @@
         <v>7.5</v>
       </c>
       <c r="C37">
-        <v>4.6</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="F37">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>51.6</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1710,22 +1710,22 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D38">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>36.5</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1736,22 +1736,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C39">
-        <v>5.4</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="D39">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="F39">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>58</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1762,22 +1762,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C40">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D40">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>46.8</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1788,22 +1788,22 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C41">
-        <v>4.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D41">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E41">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>45.4</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1814,22 +1814,22 @@
         <v>11.7</v>
       </c>
       <c r="C42">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D42">
         <v>5.8</v>
       </c>
-      <c r="D42">
-        <v>11.6</v>
-      </c>
       <c r="E42">
-        <v>21.5</v>
+        <v>4.3</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>60.6</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1840,22 +1840,22 @@
         <v>13.2</v>
       </c>
       <c r="C43">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
       <c r="D43">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>49.8</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1866,22 +1866,22 @@
         <v>12.6</v>
       </c>
       <c r="C44">
-        <v>5.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="F44">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>55.7</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1892,22 +1892,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C45">
-        <v>5.4</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="D45">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>47.6</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1918,22 +1918,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C46">
-        <v>6.4</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="D46">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
       <c r="E46">
-        <v>16.5</v>
+        <v>3.3</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>58</v>
+        <v>36.60000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1944,22 +1944,22 @@
         <v>10.8</v>
       </c>
       <c r="C47">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D47">
-        <v>12.8</v>
+        <v>6.4</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="F47">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>57.90000000000001</v>
+        <v>36.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1970,22 +1970,22 @@
         <v>4.199999999999999</v>
       </c>
       <c r="C48">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="D48">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="E48">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="F48">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>34.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1996,22 +1996,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C49">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D49">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F49">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>55.2</v>
+        <v>36.40000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2022,22 +2022,22 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2048,22 +2048,22 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C51">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D51">
-        <v>15.6</v>
+        <v>7.8</v>
       </c>
       <c r="E51">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>61.7</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2074,22 +2074,22 @@
         <v>10.2</v>
       </c>
       <c r="C52">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D52">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="F52">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>55.09999999999999</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2100,22 +2100,22 @@
         <v>12.3</v>
       </c>
       <c r="C53">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D53">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E53">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="F53">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>41.9</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2126,22 +2126,22 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C54">
-        <v>4.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>35.2</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2152,22 +2152,22 @@
         <v>5.699999999999999</v>
       </c>
       <c r="C55">
-        <v>4.6</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="D55">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F55">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>45.2</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2178,22 +2178,22 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C56">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="D56">
         <v>4.4</v>
       </c>
-      <c r="D56">
-        <v>8.800000000000001</v>
-      </c>
       <c r="E56">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="F56">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2204,22 +2204,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C57">
-        <v>5.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D57">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>44.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2230,22 +2230,22 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>4.6</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="D58">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F58">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>47.7</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2256,22 +2256,22 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="E59">
-        <v>9.5</v>
+        <v>1.9</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>49.5</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2282,22 +2282,22 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C60">
-        <v>4.4</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>9.5</v>
+        <v>1.9</v>
       </c>
       <c r="F60">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>47.2</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2308,22 +2308,22 @@
         <v>11.7</v>
       </c>
       <c r="C61">
-        <v>5.4</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="D61">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="F61">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>51.8</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2337,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F62">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>50.2</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>27.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2386,22 +2386,22 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C64">
-        <v>5.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>46.7</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2412,7 +2412,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="C65">
-        <v>6.8</v>
+        <v>10.2</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>33.90000000000001</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2438,22 +2438,22 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C66">
-        <v>5.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D66">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="E66">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="F66">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>52.6</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2464,22 +2464,22 @@
         <v>11.7</v>
       </c>
       <c r="C67">
-        <v>6.6</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>21.5</v>
+        <v>4.3</v>
       </c>
       <c r="F67">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>66.8</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2490,22 +2490,22 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="D68">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E68">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="F68">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>55.3</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2516,22 +2516,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C69">
-        <v>5.4</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="D69">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>42.8</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2542,22 +2542,22 @@
         <v>5.699999999999999</v>
       </c>
       <c r="C70">
-        <v>6.4</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H70">
-        <v>55.3</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2568,22 +2568,22 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>5.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D71">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E71">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>51.5</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2594,22 +2594,22 @@
         <v>6.600000000000001</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="D72">
-        <v>19.2</v>
+        <v>9.6</v>
       </c>
       <c r="E72">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
       <c r="F72">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G72">
-        <v>0.7999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="H72">
-        <v>59.59999999999999</v>
+        <v>38.50000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2629,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>0.2999999999999998</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H73">
-        <v>24.8</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2646,22 +2646,22 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C74">
-        <v>6.8</v>
+        <v>10.2</v>
       </c>
       <c r="D74">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="F74">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G74">
-        <v>0.09999999999999964</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="H74">
-        <v>56.3</v>
+        <v>35.40000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2672,22 +2672,22 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="D75">
-        <v>13.2</v>
+        <v>6.6</v>
       </c>
       <c r="E75">
-        <v>21.5</v>
+        <v>4.3</v>
       </c>
       <c r="F75">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G75">
-        <v>0.7000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="H75">
-        <v>63</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2698,22 +2698,22 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C76">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D76">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E76">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="F76">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G76">
-        <v>0.2999999999999998</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H76">
-        <v>51.3</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2724,22 +2724,22 @@
         <v>6.300000000000001</v>
       </c>
       <c r="C77">
-        <v>7.4</v>
+        <v>11.1</v>
       </c>
       <c r="D77">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E77">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="F77">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G77">
-        <v>0.4000000000000004</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H77">
-        <v>59.2</v>
+        <v>39.10000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2750,22 +2750,22 @@
         <v>11.4</v>
       </c>
       <c r="C78">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E78">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="F78">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>52.59999999999999</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2776,22 +2776,22 @@
         <v>8.100000000000001</v>
       </c>
       <c r="C79">
-        <v>7.4</v>
+        <v>11.1</v>
       </c>
       <c r="D79">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="E79">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="F79">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>57.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2802,22 +2802,22 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C80">
-        <v>5.4</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="D80">
-        <v>11.6</v>
+        <v>5.8</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="F80">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G80">
-        <v>0.2999999999999998</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H80">
-        <v>45.5</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2828,22 +2828,22 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D81">
-        <v>15.6</v>
+        <v>7.8</v>
       </c>
       <c r="E81">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="F81">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>62.9</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2854,22 +2854,22 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C82">
-        <v>7.8</v>
+        <v>11.7</v>
       </c>
       <c r="D82">
-        <v>12.4</v>
+        <v>6.2</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F82">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G82">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H82">
-        <v>61.3</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2880,7 +2880,7 @@
         <v>6.600000000000001</v>
       </c>
       <c r="C83">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2889,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>30.8</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2906,22 +2906,22 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C84">
-        <v>5.4</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="D84">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="E84">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>48.1</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2932,22 +2932,22 @@
         <v>10.2</v>
       </c>
       <c r="C85">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
       <c r="D85">
-        <v>12.4</v>
+        <v>6.2</v>
       </c>
       <c r="E85">
-        <v>18</v>
+        <v>3.6</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G85">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H85">
-        <v>63</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2958,22 +2958,22 @@
         <v>10.8</v>
       </c>
       <c r="C86">
-        <v>6.8</v>
+        <v>10.2</v>
       </c>
       <c r="D86">
-        <v>12.8</v>
+        <v>6.4</v>
       </c>
       <c r="E86">
-        <v>19.5</v>
+        <v>3.9</v>
       </c>
       <c r="F86">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="G86">
-        <v>0.09999999999999964</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="H86">
-        <v>57.50000000000001</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2984,22 +2984,22 @@
         <v>6.899999999999999</v>
       </c>
       <c r="C87">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D87">
-        <v>11.6</v>
+        <v>5.8</v>
       </c>
       <c r="E87">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>47.7</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3010,22 +3010,22 @@
         <v>5.1</v>
       </c>
       <c r="C88">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E88">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="F88">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>63.3</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3036,22 +3036,22 @@
         <v>7.800000000000001</v>
       </c>
       <c r="C89">
-        <v>6.6</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D89">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E89">
-        <v>10.5</v>
+        <v>2.1</v>
       </c>
       <c r="F89">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G89">
-        <v>0.2000000000000002</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H89">
-        <v>48</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3062,22 +3062,22 @@
         <v>7.5</v>
       </c>
       <c r="C90">
-        <v>6.6</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D90">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="E90">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>56.3</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3088,22 +3088,22 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>8.4</v>
+        <v>12.6</v>
       </c>
       <c r="D91">
-        <v>17.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E91">
-        <v>26.5</v>
+        <v>5.3</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.4000000000000004</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="H91">
-        <v>61.9</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3114,22 +3114,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C92">
-        <v>6.6</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E92">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>51.4</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3140,22 +3140,22 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C93">
-        <v>7.4</v>
+        <v>11.1</v>
       </c>
       <c r="D93">
-        <v>15.2</v>
+        <v>7.6</v>
       </c>
       <c r="E93">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="F93">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G93">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H93">
-        <v>59.5</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3166,22 +3166,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D94">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>44</v>
+        <v>33.90000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3192,22 +3192,22 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C95">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D95">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G95">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H95">
-        <v>47.40000000000001</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3218,22 +3218,22 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C96">
-        <v>6.4</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="D96">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E96">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G96">
-        <v>0.09999999999999964</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="H96">
-        <v>55.6</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3244,22 +3244,22 @@
         <v>14.1</v>
       </c>
       <c r="C97">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
       <c r="D97">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E97">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>53.7</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3270,22 +3270,22 @@
         <v>12.6</v>
       </c>
       <c r="C98">
-        <v>8.199999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="D98">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>52.9</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3296,22 +3296,22 @@
         <v>6.300000000000001</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="D99">
-        <v>11.6</v>
+        <v>5.8</v>
       </c>
       <c r="E99">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>0.09999999999999964</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="H99">
-        <v>44</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3322,22 +3322,22 @@
         <v>5.699999999999999</v>
       </c>
       <c r="C100">
-        <v>6.4</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="D100">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E100">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
       <c r="F100">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G100">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="H100">
-        <v>52.90000000000001</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3348,22 +3348,22 @@
         <v>9.899999999999999</v>
       </c>
       <c r="C101">
-        <v>6.6</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>49</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3374,22 +3374,22 @@
         <v>8.399999999999999</v>
       </c>
       <c r="C102">
-        <v>6.6</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D102">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="F102">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>59.7</v>
+        <v>37.59999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3400,22 +3400,22 @@
         <v>11.7</v>
       </c>
       <c r="C103">
-        <v>5.6</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>15.5</v>
+        <v>3.1</v>
       </c>
       <c r="F103">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>57.3</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3426,22 +3426,22 @@
         <v>12.3</v>
       </c>
       <c r="C104">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D104">
-        <v>12.8</v>
+        <v>6.4</v>
       </c>
       <c r="E104">
-        <v>23</v>
+        <v>4.6</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>64.3</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3452,22 +3452,22 @@
         <v>15</v>
       </c>
       <c r="C105">
-        <v>6.6</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E105">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>54.6</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3478,22 +3478,22 @@
         <v>12.9</v>
       </c>
       <c r="C106">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D106">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>53.9</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3504,22 +3504,22 @@
         <v>13.5</v>
       </c>
       <c r="C107">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D107">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="E107">
-        <v>16.5</v>
+        <v>3.3</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>52.4</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3539,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>20.8</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>31.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3608,22 +3608,22 @@
         <v>7.199999999999999</v>
       </c>
       <c r="C111">
-        <v>4.4</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="F111">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>44.1</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3634,22 +3634,22 @@
         <v>12.3</v>
       </c>
       <c r="C112">
-        <v>5.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>16.5</v>
+        <v>3.3</v>
       </c>
       <c r="F112">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>56.5</v>
+        <v>35.90000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3660,22 +3660,22 @@
         <v>12.6</v>
       </c>
       <c r="C113">
-        <v>6.4</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="D113">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>51.1</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3686,22 +3686,22 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D114">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="E114">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>44.6</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3712,22 +3712,22 @@
         <v>11.1</v>
       </c>
       <c r="C115">
-        <v>5.4</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="D115">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="F115">
-        <v>22.5</v>
+        <v>13.5</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>56.4</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3738,22 +3738,22 @@
         <v>9.300000000000001</v>
       </c>
       <c r="C116">
-        <v>3.8</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="D116">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>31.2</v>
+        <v>25.3</v>
       </c>
     </row>
   </sheetData>
